--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHan_DeXuat_Report.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHan_DeXuat_Report.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="__dv__">#REF!</definedName>
     <definedName name="__Items__">KHTH!$12:$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">KHTH!$A$1:$S$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">KHTH!$A$1:$S$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">KHTH!$6:$11</definedName>
     <definedName name="Z_FA42EA70_C459_4080_AD27_45492E92C8F8_.wvu.PrintTitles" localSheetId="0" hidden="1">KHTH!$12:$12</definedName>
     <definedName name="Z_FA42EA70_C459_4080_AD27_45492E92C8F8_.wvu.Rows" localSheetId="0" hidden="1">KHTH!#REF!</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
   <si>
     <t>Địa điểm</t>
   </si>
@@ -152,18 +152,6 @@
     <t>&lt;#if(&lt;#Items.IsHangCha&gt;=true;&lt;#format cell(Black)&gt;;)&gt;</t>
   </si>
   <si>
-    <t>&lt;#Items.STenDuAn&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.SDiaDiem&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.SThoiGianThucHien&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.SGhiChu&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>&lt;#Items.STenDonVi&gt;&lt;#AltFormat&gt;</t>
   </si>
   <si>
@@ -251,84 +239,6 @@
     <t>(18)</t>
   </si>
   <si>
-    <t>&lt;#FHanMucDauTuSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FHanMucDauTuQPSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FHanMucDauTuNNSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FHanMucDauTuDPSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FHanMucDauTuOrtherSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FTongSoNhuCauSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FTongSoSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FGiaTriNamThuNhatSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FGiaTriNamThuHaiSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FGiaTriNamThuBaSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FGiaTriNamThuTuSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FGiaTriNamThuNamSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FGiaTriBoTriSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FHanMucDauTu&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FHanMucDauTuQP&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FHanMucDauTuNN&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FHanMucDauTuDP&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FHanMucDauTuOrther&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FTongSoNhuCau&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FTongSo&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriNamThuNhat&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriNamThuHai&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriNamThuBa&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriNamThuTu&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriNamThuNam&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.fGiaTriBoTri&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>BỘ QUỐC PHÒNG</t>
   </si>
   <si>
@@ -378,6 +288,96 @@
   </si>
   <si>
     <t>&lt;#Ten5&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FHanMucDauTu&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FHanMucDauTuQP&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FHanMucDauTuNN&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FHanMucDauTuDP&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FHanMucDauTuOrther&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FTongSoNhuCau&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FTongSo&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FGiaTriNamThuNhat&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FGiaTriNamThuHai&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FGiaTriNamThuBa&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FGiaTriNamThuTu&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FGiaTriNamThuNam&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.fGiaTriBoTri&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FHanMucDauTuSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FHanMucDauTuQPSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FHanMucDauTuNNSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FHanMucDauTuDPSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FHanMucDauTuOrtherSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FTongSoNhuCauSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FTongSoSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FGiaTriNamThuNhatSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#Items.SThoiGianThucHien&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#Items.SDiaDiem&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#Items.STenDuAn&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t>&lt;#Items.SGhiChu&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FGiaTriNamThuHaiSum&gt;)&gt;&lt;#Row Height(Autofit)&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FGiaTriNamThuBaSum&gt;)&gt;&lt;#Row Height(Autofit)&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FGiaTriNamThuTuSum&gt;)&gt;&lt;#Row Height(Autofit)&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FGiaTriNamThuNamSum&gt;)&gt;&lt;#Row Height(Autofit)&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FGiaTriBoTriSum&gt;)&gt;&lt;#Row Height(Autofit)&gt; </t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -532,6 +532,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -789,7 +796,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -840,55 +847,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Connector 1"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="600075" y="628650"/>
-          <a:ext cx="1800225" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1159,8 +1117,8 @@
   </sheetPr>
   <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1169,7 +1127,7 @@
     <col min="2" max="2" width="26.25" style="9" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="4" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="8.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6" style="9" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="9" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="9" customWidth="1"/>
     <col min="7" max="7" width="10.125" style="9" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="9" customWidth="1"/>
@@ -1192,13 +1150,13 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="51" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
@@ -1217,7 +1175,7 @@
       <c r="R1" s="54"/>
       <c r="S1" s="54"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="31.5" customHeight="1">
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="49" t="s">
         <v>16</v>
       </c>
@@ -1225,7 +1183,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
       <c r="E2" s="52" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F2" s="52"/>
       <c r="G2" s="52"/>
@@ -1248,7 +1206,7 @@
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
@@ -1304,14 +1262,14 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="53" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R5" s="53"/>
       <c r="S5" s="53"/>
     </row>
     <row r="6" spans="1:27" s="7" customFormat="1" ht="42" customHeight="1">
       <c r="A6" s="47" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>8</v>
@@ -1383,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
@@ -1418,16 +1376,16 @@
       <c r="E9" s="47"/>
       <c r="F9" s="46"/>
       <c r="G9" s="19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K9" s="46"/>
       <c r="L9" s="46"/>
@@ -1445,59 +1403,59 @@
     </row>
     <row r="10" spans="1:27" s="8" customFormat="1" ht="48.75" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="J10" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="20" t="s">
+      <c r="L10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="M10" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="N10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="O10" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="P10" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="Q10" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="R10" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="S10" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="S10" s="20" t="s">
-        <v>71</v>
       </c>
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
@@ -1507,49 +1465,49 @@
     <row r="11" spans="1:27" s="27" customFormat="1" ht="36" customHeight="1">
       <c r="A11" s="26"/>
       <c r="B11" s="30" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
       <c r="F11" s="35" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="N11" s="36" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="O11" s="36" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="R11" s="36" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="S11" s="31"/>
       <c r="X11" s="28"/>
@@ -1562,16 +1520,16 @@
         <v>37</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>43</v>
-      </c>
       <c r="D12" s="33" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>85</v>
@@ -1613,7 +1571,7 @@
         <v>97</v>
       </c>
       <c r="S12" s="33" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="X12" s="24"/>
       <c r="Y12" s="24"/>
@@ -1749,7 +1707,7 @@
     </row>
     <row r="20" spans="1:19" ht="16.5" customHeight="1">
       <c r="A20" s="43" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B20" s="43"/>
       <c r="C20" s="43"/>
@@ -1758,14 +1716,14 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="42" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
       <c r="L20" s="42"/>
       <c r="M20" s="42" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
@@ -1776,7 +1734,7 @@
     </row>
     <row r="21" spans="1:19" ht="16.5" customHeight="1">
       <c r="A21" s="43" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
@@ -1785,14 +1743,14 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="42" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
       <c r="M21" s="42" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
@@ -1824,7 +1782,7 @@
     </row>
     <row r="23" spans="1:19" ht="16.5" customHeight="1">
       <c r="A23" s="42" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -1833,14 +1791,14 @@
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
       <c r="H23" s="42" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
       <c r="L23" s="42"/>
       <c r="M23" s="42" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="N23" s="42"/>
       <c r="O23" s="42"/>
@@ -1915,7 +1873,7 @@
     <row r="27" spans="1:19" ht="16.5">
       <c r="A27" s="37"/>
       <c r="B27" s="42" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
@@ -1928,7 +1886,7 @@
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
       <c r="M27" s="42" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
@@ -1940,7 +1898,7 @@
     <row r="28" spans="1:19" ht="16.5">
       <c r="A28" s="37"/>
       <c r="B28" s="42" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
@@ -1953,7 +1911,7 @@
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
       <c r="M28" s="42" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="N28" s="42"/>
       <c r="O28" s="42"/>
@@ -1986,7 +1944,7 @@
     <row r="30" spans="1:19" ht="15.75" customHeight="1">
       <c r="A30" s="39"/>
       <c r="B30" s="42" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
@@ -1999,7 +1957,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
       <c r="M30" s="42" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="N30" s="42"/>
       <c r="O30" s="42"/>
@@ -2204,25 +2162,19 @@
       <c r="I44" s="5"/>
     </row>
     <row r="51" spans="1:19" ht="16.5">
-      <c r="A51" s="43" t="s">
-        <v>100</v>
-      </c>
+      <c r="A51" s="43"/>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
-      <c r="H51" s="42" t="s">
-        <v>101</v>
-      </c>
+      <c r="H51" s="42"/>
       <c r="I51" s="42"/>
       <c r="J51" s="42"/>
       <c r="K51" s="42"/>
       <c r="L51" s="42"/>
-      <c r="M51" s="42" t="s">
-        <v>102</v>
-      </c>
+      <c r="M51" s="42"/>
       <c r="N51" s="42"/>
       <c r="O51" s="42"/>
       <c r="P51" s="42"/>
@@ -2231,25 +2183,19 @@
       <c r="S51" s="42"/>
     </row>
     <row r="52" spans="1:19" ht="16.5">
-      <c r="A52" s="43" t="s">
-        <v>103</v>
-      </c>
+      <c r="A52" s="43"/>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="43"/>
       <c r="G52" s="43"/>
-      <c r="H52" s="42" t="s">
-        <v>104</v>
-      </c>
+      <c r="H52" s="42"/>
       <c r="I52" s="42"/>
       <c r="J52" s="42"/>
       <c r="K52" s="42"/>
       <c r="L52" s="42"/>
-      <c r="M52" s="42" t="s">
-        <v>105</v>
-      </c>
+      <c r="M52" s="42"/>
       <c r="N52" s="42"/>
       <c r="O52" s="42"/>
       <c r="P52" s="42"/>
@@ -2279,25 +2225,19 @@
       <c r="S53" s="37"/>
     </row>
     <row r="54" spans="1:19" ht="16.5">
-      <c r="A54" s="42" t="s">
-        <v>106</v>
-      </c>
+      <c r="A54" s="42"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
       <c r="E54" s="42"/>
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
-      <c r="H54" s="42" t="s">
-        <v>107</v>
-      </c>
+      <c r="H54" s="42"/>
       <c r="I54" s="42"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
       <c r="L54" s="42"/>
-      <c r="M54" s="42" t="s">
-        <v>108</v>
-      </c>
+      <c r="M54" s="42"/>
       <c r="N54" s="42"/>
       <c r="O54" s="42"/>
       <c r="P54" s="42"/>
@@ -2370,9 +2310,7 @@
     </row>
     <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="37"/>
-      <c r="B58" s="42" t="s">
-        <v>109</v>
-      </c>
+      <c r="B58" s="42"/>
       <c r="C58" s="42"/>
       <c r="D58" s="42"/>
       <c r="E58" s="42"/>
@@ -2383,9 +2321,7 @@
       <c r="J58" s="37"/>
       <c r="K58" s="37"/>
       <c r="L58" s="37"/>
-      <c r="M58" s="42" t="s">
-        <v>110</v>
-      </c>
+      <c r="M58" s="42"/>
       <c r="N58" s="42"/>
       <c r="O58" s="42"/>
       <c r="P58" s="42"/>
@@ -2395,9 +2331,7 @@
     </row>
     <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="37"/>
-      <c r="B59" s="42" t="s">
-        <v>111</v>
-      </c>
+      <c r="B59" s="42"/>
       <c r="C59" s="42"/>
       <c r="D59" s="42"/>
       <c r="E59" s="42"/>
@@ -2408,9 +2342,7 @@
       <c r="J59" s="37"/>
       <c r="K59" s="37"/>
       <c r="L59" s="37"/>
-      <c r="M59" s="42" t="s">
-        <v>112</v>
-      </c>
+      <c r="M59" s="42"/>
       <c r="N59" s="42"/>
       <c r="O59" s="42"/>
       <c r="P59" s="42"/>
@@ -2441,9 +2373,7 @@
     </row>
     <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="39"/>
-      <c r="B61" s="42" t="s">
-        <v>113</v>
-      </c>
+      <c r="B61" s="42"/>
       <c r="C61" s="42"/>
       <c r="D61" s="42"/>
       <c r="E61" s="42"/>
@@ -2454,9 +2384,7 @@
       <c r="J61" s="37"/>
       <c r="K61" s="37"/>
       <c r="L61" s="37"/>
-      <c r="M61" s="42" t="s">
-        <v>114</v>
-      </c>
+      <c r="M61" s="42"/>
       <c r="N61" s="42"/>
       <c r="O61" s="42"/>
       <c r="P61" s="42"/>
@@ -2661,13 +2589,9 @@
   <headerFooter>
     <oddHeader>&amp;R&amp;"Times New Roman,Italic"Trang &amp;P</oddHeader>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="12" max="16383" man="1"/>
-  </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="19" max="1048575" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
